--- a/Plotting/result_data_infra.xlsx
+++ b/Plotting/result_data_infra.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EHubversions\AdOpT-NET0_Julia\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE748635-61F4-4C4D-B08D-CEA28365353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9D3F9-C0EF-48D8-8347-F558E1BF8B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Location</t>
   </si>
@@ -113,6 +126,9 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>Z:\PyHub\PyHub_results\CM\Infrastructure\Chemelot_eleclim\20240729122707_minC_highCO2tax-1\optimization_results.h5</t>
   </si>
 </sst>
 </file>
@@ -524,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,6 +641,9 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -651,6 +670,9 @@
       <c r="H6">
         <v>4536897620.2127113</v>
       </c>
+      <c r="I6">
+        <v>4702635035.46873</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -677,6 +699,9 @@
       <c r="H7">
         <v>1662567.8278726421</v>
       </c>
+      <c r="I7">
+        <v>1662473.145245079</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -703,6 +728,9 @@
       <c r="H8">
         <v>82.180071534484284</v>
       </c>
+      <c r="I8">
+        <v>82.180071534482579</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -729,6 +757,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -755,6 +786,9 @@
       <c r="H10">
         <v>67.819928465513073</v>
       </c>
+      <c r="I10">
+        <v>67.819928465518785</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -781,6 +815,9 @@
       <c r="H11">
         <v>102.1728995656547</v>
       </c>
+      <c r="I11">
+        <v>102.17289956564331</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -807,6 +844,9 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -833,6 +873,9 @@
       <c r="H13">
         <v>32.827100434346342</v>
       </c>
+      <c r="I13">
+        <v>32.8271004343556</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -859,6 +902,9 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -885,6 +931,9 @@
       <c r="H15">
         <v>1817.2304815399791</v>
       </c>
+      <c r="I15">
+        <v>1883.6157315824439</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -911,8 +960,11 @@
       <c r="H16">
         <v>820.94967126359029</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>850.93978520495943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -937,8 +989,11 @@
       <c r="H17">
         <v>0.66593279975672603</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>0.66589487512820589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -962,6 +1017,61 @@
       </c>
       <c r="H18">
         <v>0.3008409327256264</v>
+      </c>
+      <c r="I18">
+        <v>0.3008237999449293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f>(D6-$B$6)/$B$6</f>
+        <v>1.9526227585617461E-2</v>
+      </c>
+      <c r="E20">
+        <f>(E6-$C$6)/$C$6</f>
+        <v>4.0668497296083246E-2</v>
+      </c>
+      <c r="F20">
+        <f>(F6-$B$6)/$B$6</f>
+        <v>-4.9483530776219461E-3</v>
+      </c>
+      <c r="G20">
+        <f>(G6-$C$6)/$C$6</f>
+        <v>-1.9398512518292124E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="E20:I21" si="0">(H6-$B$6)/$B$6</f>
+        <v>1.604650873668639E-2</v>
+      </c>
+      <c r="I20">
+        <f>(I6-$C$6)/$C$6</f>
+        <v>1.9759362605410336E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f>(D7-$B$7)/$B$7</f>
+        <v>0.67466733483389985</v>
+      </c>
+      <c r="E21">
+        <f>(E7-$C$7)/$C$7</f>
+        <v>0.70549205247666136</v>
+      </c>
+      <c r="F21">
+        <f>(F7-$B$7)/$B$7</f>
+        <v>-0.38012299508497299</v>
+      </c>
+      <c r="G21">
+        <f>(G7-$C$7)/$C$7</f>
+        <v>-0.61178390728198484</v>
+      </c>
+      <c r="H21">
+        <f>(H7-$B$7)/$B$7</f>
+        <v>0.11332389648689851</v>
+      </c>
+      <c r="I21">
+        <f>(I7-$C$7)/$C$7</f>
+        <v>0.16499851993533785</v>
       </c>
     </row>
   </sheetData>
